--- a/files/Stembureaus Open Data Standaard 1.7 - gemeenteraadsverkiezingen 2026 voorbeeld.xlsx
+++ b/files/Stembureaus Open Data Standaard 1.7 - gemeenteraadsverkiezingen 2026 voorbeeld.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Op het tabblad 'Attributen' staan alle attributen die voor elk stembureau toepasbaar zijn.
 De kolommen 'Opmerkingen, 'Format' en 'Voorbeeld' geven meer informatie over het attribuut. De 'Opmerkingen'-kolom geeft algemene informatie over het attribuut en geeft soms meer informatie over hoe u het veld moet gebruiken zoals gespecificeerd in de 'Format'-kolom. In de 'Voorbeeld'-kolom wordt een voorbeeld gegeven van hoe u het attribuut moet gebruiken.
 Sommige gemeenten werken met mobiele stembureaus die gedurende de dag op verschillende locaties staan. Voor mobiele stembureaus moeten alle attributen voor elke locatie apart worden ingevoerd.
-Sommige toegankelijkheidsattributen zijn niet gedurende de hele openingstijd van een stembureau beschikbaar. Bijvoorbeeld een 'Gebarentolk (NGT)' met de waarde 'op locatie', die gedurende de dag langs meerdere stembureaus gaat. Vul deze informatie dan in het 'Extra toegankelijkheidsinformatie'-attribuut in, bijvoorbeeld: 'Gebarentolk op locatie (NGT) is aanwezig van 10:00-12:00 en 16:00-18:00'.</t>
+Sommige toegankelijkheidsattributen kunnen soms niet gedurende de hele openingstijd van een stembureau beschikbaar zijn. Bijvoorbeeld een 'Gebarentolk (NGT)' met de waarde 'op locatie', die gedurende de dag langs meerdere stembureaus gaat. Vul deze informatie dan in het 'Extra toegankelijkheidsinformatie'-attribuut in, bijvoorbeeld: 'Gebarentolk op locatie (NGT) is aanwezig van 10:00-12:00 en 16:00-18:00'.</t>
   </si>
   <si>
     <t xml:space="preserve">Metadata</t>
@@ -1934,7 +1934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>

--- a/files/Stembureaus Open Data Standaard 1.7 - gemeenteraadsverkiezingen 2026 voorbeeld.xlsx
+++ b/files/Stembureaus Open Data Standaard 1.7 - gemeenteraadsverkiezingen 2026 voorbeeld.xlsx
@@ -29,7 +29,7 @@
   </si>
   <si>
     <t xml:space="preserve">Op dit tabblad wordt het gebruik van deze spreadsheet toegelicht. Hieronder staat de beschrijving van de andere twee tabbladen 'Attributen' en 'Metadata'.
-Deze spreadsheet beschrijft de Stembureaus Open Data Standaard versie 1.6.</t>
+Deze spreadsheet beschrijft de Stembureaus Open Data Standaard versie 1.7.</t>
   </si>
   <si>
     <t xml:space="preserve">Attributen</t>
@@ -55,6 +55,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Dit tabblad geeft </t>
     </r>
@@ -63,6 +64,7 @@
         <sz val="10"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">informatie over het opslaan van data volgens deze standaard in CSV-, spreadsheet- en JSON-bestandsformaten.</t>
     </r>
@@ -128,6 +130,7 @@
         <sz val="10"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Versie 1.4:
 – Toevoeging van ‘</t>
@@ -138,6 +141,7 @@
         <color rgb="FF000000"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Toegankelijke ov-halte’-attribuut.
 – Toevoeging van ‘Extra toegankelijkheidsinformatie’-attribuut.
@@ -148,6 +152,7 @@
         <sz val="10"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– ‘schrijftolk’ toegevoegd aan de voorbeelden van het ‘Auditieve hulpmiddelen’-attribuut.
 – ‘leesloep’ verwijderd uit de voorbeelden van het ‘Visuele hulpmiddelen’-attribuut.
@@ -164,6 +169,7 @@
         <color rgb="FF000000"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'0000000000000000' (zestien keer het getal '0') invullen bij het ‘BAG Nummeraanduiding ID’-attribuut.
 </t>
@@ -173,6 +179,7 @@
         <sz val="10"/>
         <rFont val="arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– Opmerking toegevoegd dat stembureaus die op meerdere dagen open zijn voor elke dag een ander stembureau nummer moeten hebben en dus apart moeten worden ingevoerd.
 – Toevoeging van ‘Type stembureau’-attribuut.
@@ -185,6 +192,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– URL van CBS-tabel met gemeentenamen en -codes aangepast naar de 2023 versie.
 – Deze versie is voor het eerst te gebruiken voor de verkiezingen van 15 maart 2023.</t>
@@ -196,6 +204,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Versie 1.5:
 – URL van CBS-tabel met gemeentenamen en -codes aangepast van een statische pagina voor een specifiek jaar naar een pagina die door het CBS bijgehouden wordt, zodat deze URL niet meer elk jaar hoeft te worden aangepast.
@@ -208,6 +217,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Akoestiek geschikt voor slechthorenden’.
 </t>
@@ -217,6 +227,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– ‘Bestandsformaten’-tabblad JSON voorbeeld bijgewerkt.
 – Deze versie is voor het eerst te gebruiken voor de Tweede Kamerverkiezingen van 22 november 2023.</t>
@@ -228,6 +239,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Versie 1.6:
 – Toevoeging van 'Host'-attribuut.
@@ -244,6 +256,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– Toevoeging van 'Gebarentalig stembureaulid (NGT)'-attribuut.
 – Toevoeging van 'Prikkelarm'-attribuut.
@@ -255,6 +268,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– Verwijdering van het 'Auditieve hulpmiddelen'-attribuut, omdat er nu aparte attributen voor deze hulpmiddelen zijn toegevoegd.
 – Verwijdering van het 'Visuele hulpmiddelen'-attribuut, omdat er nu aparte attributen voor deze hulpmiddelen zijn toegevoegd.
@@ -266,6 +280,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Wijziging van 'Toegankelijke ov-halte'-attribuut format van 'tekst' naar 'ja of nee'.
 </t>
@@ -275,6 +290,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– </t>
     </r>
@@ -284,6 +300,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Wijziging van 'Extra toegankelijkheidsinformatie'-attribuut voorbeeld door prikkelarm te verwijderen aangezien dit nu een apart attribuut is en voorbeelden voor oefenstembureau, kwetsbare mensen en gebarentolk met beperkte aanwezigheid toe te voegen.
 </t>
@@ -293,6 +310,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">– Toevoeging aan format van 'Extra toegankelijkheidsinformatie'-attribuut: 'NB: een leesloep is verplicht op elk stembureau en moet hier dus niet vermeld worden.'.
 – Wijziging van 'Website locatie'-attribuut voorbeeld met nieuwe URL.
@@ -1006,6 +1024,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1027,6 +1046,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1034,12 +1054,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1047,6 +1069,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1054,12 +1077,14 @@
       <color rgb="FF808080"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1068,18 +1093,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1087,6 +1115,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1094,18 +1123,21 @@
       <color rgb="FF0000EE"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1115,34 +1147,40 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1150,12 +1188,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1163,18 +1203,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1182,12 +1225,14 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1448,32 +1493,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1485,10 +1534,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1497,15 +1542,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1521,7 +1566,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1529,7 +1574,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1537,11 +1582,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1577,19 +1622,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1597,7 +1642,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1605,11 +1650,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1625,11 +1670,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1637,7 +1682,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1645,10 +1690,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="61" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1665,15 +1706,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1934,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1973,7 +2014,7 @@
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="0"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -1986,7 +2027,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2036,35 +2077,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="40.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="21.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="59.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="71.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="51.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="30.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="12.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="12.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="5" width="12.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="11" style="5" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="40.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="21.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="59.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="71.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="51.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="6" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="11" style="6" width="12.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -3082,16 +3123,16 @@
         <v>26</v>
       </c>
       <c r="F2" s="16"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
@@ -3111,16 +3152,16 @@
       <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
@@ -3141,16 +3182,16 @@
         <v>517</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
@@ -3169,16 +3210,16 @@
         <v>36</v>
       </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
@@ -4216,16 +4257,16 @@
         <v>44</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
@@ -4246,16 +4287,16 @@
         <v>48</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
@@ -4272,16 +4313,16 @@
         <v>50</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
@@ -4298,16 +4339,16 @@
         <v>52</v>
       </c>
       <c r="F10" s="25"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
@@ -4324,16 +4365,16 @@
         <v>54</v>
       </c>
       <c r="F11" s="25"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
@@ -4350,16 +4391,16 @@
         <v>56</v>
       </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
@@ -4380,16 +4421,16 @@
         <v>59</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
@@ -4406,16 +4447,16 @@
         <v>61</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
@@ -4432,16 +4473,16 @@
         <v>70</v>
       </c>
       <c r="F15" s="19"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
@@ -4456,16 +4497,16 @@
       <c r="D16" s="13"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
@@ -4480,16 +4521,16 @@
       <c r="D17" s="13"/>
       <c r="E17" s="19"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
@@ -4508,16 +4549,16 @@
         <v>67</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
@@ -4534,16 +4575,16 @@
         <v>26</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
@@ -4564,16 +4605,16 @@
         <v>73</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
@@ -4594,16 +4635,16 @@
         <v>81611</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
@@ -4624,16 +4665,16 @@
         <v>454909</v>
       </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
@@ -4653,17 +4694,17 @@
       <c r="E23" s="19" t="n">
         <v>52.0775912</v>
       </c>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
@@ -4684,16 +4725,16 @@
         <v>4.3166395</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
@@ -4714,16 +4755,16 @@
         <v>89</v>
       </c>
       <c r="F25" s="30"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
@@ -4744,16 +4785,16 @@
         <v>91</v>
       </c>
       <c r="F26" s="30"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
@@ -4773,15 +4814,15 @@
       <c r="E27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
@@ -4801,15 +4842,15 @@
       <c r="E28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
@@ -4829,17 +4870,17 @@
       <c r="E29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="27"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
@@ -4859,15 +4900,15 @@
       <c r="E30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
@@ -4887,15 +4928,15 @@
       <c r="E31" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
@@ -4915,15 +4956,15 @@
       <c r="E32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
@@ -4943,15 +4984,15 @@
       <c r="E33" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
@@ -4971,15 +5012,15 @@
       <c r="E34" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
@@ -4999,15 +5040,15 @@
       <c r="E35" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
@@ -5027,15 +5068,15 @@
       <c r="E36" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
@@ -5056,16 +5097,16 @@
         <v>28</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="9"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="27"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
@@ -5086,16 +5127,16 @@
         <v>28</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="9"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="27"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
@@ -5116,16 +5157,16 @@
         <v>28</v>
       </c>
       <c r="F39" s="16"/>
-      <c r="G39" s="9"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="27"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
@@ -5145,17 +5186,17 @@
       <c r="E40" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="27"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
@@ -5173,17 +5214,17 @@
         <v>72</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="27"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
@@ -5204,16 +5245,16 @@
         <v>1</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="9"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="27"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
@@ -5224,7 +5265,7 @@
       <c r="B43" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="20" t="s">
@@ -5234,16 +5275,16 @@
         <v>26</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
@@ -5264,16 +5305,16 @@
         <v>28</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
@@ -5294,16 +5335,16 @@
         <v>140</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
@@ -5324,16 +5365,16 @@
         <v>143</v>
       </c>
       <c r="F46" s="36"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
@@ -5354,16 +5395,16 @@
         <v>147</v>
       </c>
       <c r="F47" s="36"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="27"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
@@ -5427,23 +5468,23 @@
       <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="39"/>
       <c r="I1" s="40"/>
-      <c r="J1" s="9"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
@@ -5458,22 +5499,22 @@
       <c r="D2" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
@@ -5491,1025 +5532,1025 @@
       <c r="E3" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="5"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="5"/>
-      <c r="CC3" s="5"/>
-      <c r="CD3" s="5"/>
-      <c r="CE3" s="5"/>
-      <c r="CF3" s="5"/>
-      <c r="CG3" s="5"/>
-      <c r="CH3" s="5"/>
-      <c r="CI3" s="5"/>
-      <c r="CJ3" s="5"/>
-      <c r="CK3" s="5"/>
-      <c r="CL3" s="5"/>
-      <c r="CM3" s="5"/>
-      <c r="CN3" s="5"/>
-      <c r="CO3" s="5"/>
-      <c r="CP3" s="5"/>
-      <c r="CQ3" s="5"/>
-      <c r="CR3" s="5"/>
-      <c r="CS3" s="5"/>
-      <c r="CT3" s="5"/>
-      <c r="CU3" s="5"/>
-      <c r="CV3" s="5"/>
-      <c r="CW3" s="5"/>
-      <c r="CX3" s="5"/>
-      <c r="CY3" s="5"/>
-      <c r="CZ3" s="5"/>
-      <c r="DA3" s="5"/>
-      <c r="DB3" s="5"/>
-      <c r="DC3" s="5"/>
-      <c r="DD3" s="5"/>
-      <c r="DE3" s="5"/>
-      <c r="DF3" s="5"/>
-      <c r="DG3" s="5"/>
-      <c r="DH3" s="5"/>
-      <c r="DI3" s="5"/>
-      <c r="DJ3" s="5"/>
-      <c r="DK3" s="5"/>
-      <c r="DL3" s="5"/>
-      <c r="DM3" s="5"/>
-      <c r="DN3" s="5"/>
-      <c r="DO3" s="5"/>
-      <c r="DP3" s="5"/>
-      <c r="DQ3" s="5"/>
-      <c r="DR3" s="5"/>
-      <c r="DS3" s="5"/>
-      <c r="DT3" s="5"/>
-      <c r="DU3" s="5"/>
-      <c r="DV3" s="5"/>
-      <c r="DW3" s="5"/>
-      <c r="DX3" s="5"/>
-      <c r="DY3" s="5"/>
-      <c r="DZ3" s="5"/>
-      <c r="EA3" s="5"/>
-      <c r="EB3" s="5"/>
-      <c r="EC3" s="5"/>
-      <c r="ED3" s="5"/>
-      <c r="EE3" s="5"/>
-      <c r="EF3" s="5"/>
-      <c r="EG3" s="5"/>
-      <c r="EH3" s="5"/>
-      <c r="EI3" s="5"/>
-      <c r="EJ3" s="5"/>
-      <c r="EK3" s="5"/>
-      <c r="EL3" s="5"/>
-      <c r="EM3" s="5"/>
-      <c r="EN3" s="5"/>
-      <c r="EO3" s="5"/>
-      <c r="EP3" s="5"/>
-      <c r="EQ3" s="5"/>
-      <c r="ER3" s="5"/>
-      <c r="ES3" s="5"/>
-      <c r="ET3" s="5"/>
-      <c r="EU3" s="5"/>
-      <c r="EV3" s="5"/>
-      <c r="EW3" s="5"/>
-      <c r="EX3" s="5"/>
-      <c r="EY3" s="5"/>
-      <c r="EZ3" s="5"/>
-      <c r="FA3" s="5"/>
-      <c r="FB3" s="5"/>
-      <c r="FC3" s="5"/>
-      <c r="FD3" s="5"/>
-      <c r="FE3" s="5"/>
-      <c r="FF3" s="5"/>
-      <c r="FG3" s="5"/>
-      <c r="FH3" s="5"/>
-      <c r="FI3" s="5"/>
-      <c r="FJ3" s="5"/>
-      <c r="FK3" s="5"/>
-      <c r="FL3" s="5"/>
-      <c r="FM3" s="5"/>
-      <c r="FN3" s="5"/>
-      <c r="FO3" s="5"/>
-      <c r="FP3" s="5"/>
-      <c r="FQ3" s="5"/>
-      <c r="FR3" s="5"/>
-      <c r="FS3" s="5"/>
-      <c r="FT3" s="5"/>
-      <c r="FU3" s="5"/>
-      <c r="FV3" s="5"/>
-      <c r="FW3" s="5"/>
-      <c r="FX3" s="5"/>
-      <c r="FY3" s="5"/>
-      <c r="FZ3" s="5"/>
-      <c r="GA3" s="5"/>
-      <c r="GB3" s="5"/>
-      <c r="GC3" s="5"/>
-      <c r="GD3" s="5"/>
-      <c r="GE3" s="5"/>
-      <c r="GF3" s="5"/>
-      <c r="GG3" s="5"/>
-      <c r="GH3" s="5"/>
-      <c r="GI3" s="5"/>
-      <c r="GJ3" s="5"/>
-      <c r="GK3" s="5"/>
-      <c r="GL3" s="5"/>
-      <c r="GM3" s="5"/>
-      <c r="GN3" s="5"/>
-      <c r="GO3" s="5"/>
-      <c r="GP3" s="5"/>
-      <c r="GQ3" s="5"/>
-      <c r="GR3" s="5"/>
-      <c r="GS3" s="5"/>
-      <c r="GT3" s="5"/>
-      <c r="GU3" s="5"/>
-      <c r="GV3" s="5"/>
-      <c r="GW3" s="5"/>
-      <c r="GX3" s="5"/>
-      <c r="GY3" s="5"/>
-      <c r="GZ3" s="5"/>
-      <c r="HA3" s="5"/>
-      <c r="HB3" s="5"/>
-      <c r="HC3" s="5"/>
-      <c r="HD3" s="5"/>
-      <c r="HE3" s="5"/>
-      <c r="HF3" s="5"/>
-      <c r="HG3" s="5"/>
-      <c r="HH3" s="5"/>
-      <c r="HI3" s="5"/>
-      <c r="HJ3" s="5"/>
-      <c r="HK3" s="5"/>
-      <c r="HL3" s="5"/>
-      <c r="HM3" s="5"/>
-      <c r="HN3" s="5"/>
-      <c r="HO3" s="5"/>
-      <c r="HP3" s="5"/>
-      <c r="HQ3" s="5"/>
-      <c r="HR3" s="5"/>
-      <c r="HS3" s="5"/>
-      <c r="HT3" s="5"/>
-      <c r="HU3" s="5"/>
-      <c r="HV3" s="5"/>
-      <c r="HW3" s="5"/>
-      <c r="HX3" s="5"/>
-      <c r="HY3" s="5"/>
-      <c r="HZ3" s="5"/>
-      <c r="IA3" s="5"/>
-      <c r="IB3" s="5"/>
-      <c r="IC3" s="5"/>
-      <c r="ID3" s="5"/>
-      <c r="IE3" s="5"/>
-      <c r="IF3" s="5"/>
-      <c r="IG3" s="5"/>
-      <c r="IH3" s="5"/>
-      <c r="II3" s="5"/>
-      <c r="IJ3" s="5"/>
-      <c r="IK3" s="5"/>
-      <c r="IL3" s="5"/>
-      <c r="IM3" s="5"/>
-      <c r="IN3" s="5"/>
-      <c r="IO3" s="5"/>
-      <c r="IP3" s="5"/>
-      <c r="IQ3" s="5"/>
-      <c r="IR3" s="5"/>
-      <c r="IS3" s="5"/>
-      <c r="IT3" s="5"/>
-      <c r="IU3" s="5"/>
-      <c r="IV3" s="5"/>
-      <c r="IW3" s="5"/>
-      <c r="IX3" s="5"/>
-      <c r="IY3" s="5"/>
-      <c r="IZ3" s="5"/>
-      <c r="JA3" s="5"/>
-      <c r="JB3" s="5"/>
-      <c r="JC3" s="5"/>
-      <c r="JD3" s="5"/>
-      <c r="JE3" s="5"/>
-      <c r="JF3" s="5"/>
-      <c r="JG3" s="5"/>
-      <c r="JH3" s="5"/>
-      <c r="JI3" s="5"/>
-      <c r="JJ3" s="5"/>
-      <c r="JK3" s="5"/>
-      <c r="JL3" s="5"/>
-      <c r="JM3" s="5"/>
-      <c r="JN3" s="5"/>
-      <c r="JO3" s="5"/>
-      <c r="JP3" s="5"/>
-      <c r="JQ3" s="5"/>
-      <c r="JR3" s="5"/>
-      <c r="JS3" s="5"/>
-      <c r="JT3" s="5"/>
-      <c r="JU3" s="5"/>
-      <c r="JV3" s="5"/>
-      <c r="JW3" s="5"/>
-      <c r="JX3" s="5"/>
-      <c r="JY3" s="5"/>
-      <c r="JZ3" s="5"/>
-      <c r="KA3" s="5"/>
-      <c r="KB3" s="5"/>
-      <c r="KC3" s="5"/>
-      <c r="KD3" s="5"/>
-      <c r="KE3" s="5"/>
-      <c r="KF3" s="5"/>
-      <c r="KG3" s="5"/>
-      <c r="KH3" s="5"/>
-      <c r="KI3" s="5"/>
-      <c r="KJ3" s="5"/>
-      <c r="KK3" s="5"/>
-      <c r="KL3" s="5"/>
-      <c r="KM3" s="5"/>
-      <c r="KN3" s="5"/>
-      <c r="KO3" s="5"/>
-      <c r="KP3" s="5"/>
-      <c r="KQ3" s="5"/>
-      <c r="KR3" s="5"/>
-      <c r="KS3" s="5"/>
-      <c r="KT3" s="5"/>
-      <c r="KU3" s="5"/>
-      <c r="KV3" s="5"/>
-      <c r="KW3" s="5"/>
-      <c r="KX3" s="5"/>
-      <c r="KY3" s="5"/>
-      <c r="KZ3" s="5"/>
-      <c r="LA3" s="5"/>
-      <c r="LB3" s="5"/>
-      <c r="LC3" s="5"/>
-      <c r="LD3" s="5"/>
-      <c r="LE3" s="5"/>
-      <c r="LF3" s="5"/>
-      <c r="LG3" s="5"/>
-      <c r="LH3" s="5"/>
-      <c r="LI3" s="5"/>
-      <c r="LJ3" s="5"/>
-      <c r="LK3" s="5"/>
-      <c r="LL3" s="5"/>
-      <c r="LM3" s="5"/>
-      <c r="LN3" s="5"/>
-      <c r="LO3" s="5"/>
-      <c r="LP3" s="5"/>
-      <c r="LQ3" s="5"/>
-      <c r="LR3" s="5"/>
-      <c r="LS3" s="5"/>
-      <c r="LT3" s="5"/>
-      <c r="LU3" s="5"/>
-      <c r="LV3" s="5"/>
-      <c r="LW3" s="5"/>
-      <c r="LX3" s="5"/>
-      <c r="LY3" s="5"/>
-      <c r="LZ3" s="5"/>
-      <c r="MA3" s="5"/>
-      <c r="MB3" s="5"/>
-      <c r="MC3" s="5"/>
-      <c r="MD3" s="5"/>
-      <c r="ME3" s="5"/>
-      <c r="MF3" s="5"/>
-      <c r="MG3" s="5"/>
-      <c r="MH3" s="5"/>
-      <c r="MI3" s="5"/>
-      <c r="MJ3" s="5"/>
-      <c r="MK3" s="5"/>
-      <c r="ML3" s="5"/>
-      <c r="MM3" s="5"/>
-      <c r="MN3" s="5"/>
-      <c r="MO3" s="5"/>
-      <c r="MP3" s="5"/>
-      <c r="MQ3" s="5"/>
-      <c r="MR3" s="5"/>
-      <c r="MS3" s="5"/>
-      <c r="MT3" s="5"/>
-      <c r="MU3" s="5"/>
-      <c r="MV3" s="5"/>
-      <c r="MW3" s="5"/>
-      <c r="MX3" s="5"/>
-      <c r="MY3" s="5"/>
-      <c r="MZ3" s="5"/>
-      <c r="NA3" s="5"/>
-      <c r="NB3" s="5"/>
-      <c r="NC3" s="5"/>
-      <c r="ND3" s="5"/>
-      <c r="NE3" s="5"/>
-      <c r="NF3" s="5"/>
-      <c r="NG3" s="5"/>
-      <c r="NH3" s="5"/>
-      <c r="NI3" s="5"/>
-      <c r="NJ3" s="5"/>
-      <c r="NK3" s="5"/>
-      <c r="NL3" s="5"/>
-      <c r="NM3" s="5"/>
-      <c r="NN3" s="5"/>
-      <c r="NO3" s="5"/>
-      <c r="NP3" s="5"/>
-      <c r="NQ3" s="5"/>
-      <c r="NR3" s="5"/>
-      <c r="NS3" s="5"/>
-      <c r="NT3" s="5"/>
-      <c r="NU3" s="5"/>
-      <c r="NV3" s="5"/>
-      <c r="NW3" s="5"/>
-      <c r="NX3" s="5"/>
-      <c r="NY3" s="5"/>
-      <c r="NZ3" s="5"/>
-      <c r="OA3" s="5"/>
-      <c r="OB3" s="5"/>
-      <c r="OC3" s="5"/>
-      <c r="OD3" s="5"/>
-      <c r="OE3" s="5"/>
-      <c r="OF3" s="5"/>
-      <c r="OG3" s="5"/>
-      <c r="OH3" s="5"/>
-      <c r="OI3" s="5"/>
-      <c r="OJ3" s="5"/>
-      <c r="OK3" s="5"/>
-      <c r="OL3" s="5"/>
-      <c r="OM3" s="5"/>
-      <c r="ON3" s="5"/>
-      <c r="OO3" s="5"/>
-      <c r="OP3" s="5"/>
-      <c r="OQ3" s="5"/>
-      <c r="OR3" s="5"/>
-      <c r="OS3" s="5"/>
-      <c r="OT3" s="5"/>
-      <c r="OU3" s="5"/>
-      <c r="OV3" s="5"/>
-      <c r="OW3" s="5"/>
-      <c r="OX3" s="5"/>
-      <c r="OY3" s="5"/>
-      <c r="OZ3" s="5"/>
-      <c r="PA3" s="5"/>
-      <c r="PB3" s="5"/>
-      <c r="PC3" s="5"/>
-      <c r="PD3" s="5"/>
-      <c r="PE3" s="5"/>
-      <c r="PF3" s="5"/>
-      <c r="PG3" s="5"/>
-      <c r="PH3" s="5"/>
-      <c r="PI3" s="5"/>
-      <c r="PJ3" s="5"/>
-      <c r="PK3" s="5"/>
-      <c r="PL3" s="5"/>
-      <c r="PM3" s="5"/>
-      <c r="PN3" s="5"/>
-      <c r="PO3" s="5"/>
-      <c r="PP3" s="5"/>
-      <c r="PQ3" s="5"/>
-      <c r="PR3" s="5"/>
-      <c r="PS3" s="5"/>
-      <c r="PT3" s="5"/>
-      <c r="PU3" s="5"/>
-      <c r="PV3" s="5"/>
-      <c r="PW3" s="5"/>
-      <c r="PX3" s="5"/>
-      <c r="PY3" s="5"/>
-      <c r="PZ3" s="5"/>
-      <c r="QA3" s="5"/>
-      <c r="QB3" s="5"/>
-      <c r="QC3" s="5"/>
-      <c r="QD3" s="5"/>
-      <c r="QE3" s="5"/>
-      <c r="QF3" s="5"/>
-      <c r="QG3" s="5"/>
-      <c r="QH3" s="5"/>
-      <c r="QI3" s="5"/>
-      <c r="QJ3" s="5"/>
-      <c r="QK3" s="5"/>
-      <c r="QL3" s="5"/>
-      <c r="QM3" s="5"/>
-      <c r="QN3" s="5"/>
-      <c r="QO3" s="5"/>
-      <c r="QP3" s="5"/>
-      <c r="QQ3" s="5"/>
-      <c r="QR3" s="5"/>
-      <c r="QS3" s="5"/>
-      <c r="QT3" s="5"/>
-      <c r="QU3" s="5"/>
-      <c r="QV3" s="5"/>
-      <c r="QW3" s="5"/>
-      <c r="QX3" s="5"/>
-      <c r="QY3" s="5"/>
-      <c r="QZ3" s="5"/>
-      <c r="RA3" s="5"/>
-      <c r="RB3" s="5"/>
-      <c r="RC3" s="5"/>
-      <c r="RD3" s="5"/>
-      <c r="RE3" s="5"/>
-      <c r="RF3" s="5"/>
-      <c r="RG3" s="5"/>
-      <c r="RH3" s="5"/>
-      <c r="RI3" s="5"/>
-      <c r="RJ3" s="5"/>
-      <c r="RK3" s="5"/>
-      <c r="RL3" s="5"/>
-      <c r="RM3" s="5"/>
-      <c r="RN3" s="5"/>
-      <c r="RO3" s="5"/>
-      <c r="RP3" s="5"/>
-      <c r="RQ3" s="5"/>
-      <c r="RR3" s="5"/>
-      <c r="RS3" s="5"/>
-      <c r="RT3" s="5"/>
-      <c r="RU3" s="5"/>
-      <c r="RV3" s="5"/>
-      <c r="RW3" s="5"/>
-      <c r="RX3" s="5"/>
-      <c r="RY3" s="5"/>
-      <c r="RZ3" s="5"/>
-      <c r="SA3" s="5"/>
-      <c r="SB3" s="5"/>
-      <c r="SC3" s="5"/>
-      <c r="SD3" s="5"/>
-      <c r="SE3" s="5"/>
-      <c r="SF3" s="5"/>
-      <c r="SG3" s="5"/>
-      <c r="SH3" s="5"/>
-      <c r="SI3" s="5"/>
-      <c r="SJ3" s="5"/>
-      <c r="SK3" s="5"/>
-      <c r="SL3" s="5"/>
-      <c r="SM3" s="5"/>
-      <c r="SN3" s="5"/>
-      <c r="SO3" s="5"/>
-      <c r="SP3" s="5"/>
-      <c r="SQ3" s="5"/>
-      <c r="SR3" s="5"/>
-      <c r="SS3" s="5"/>
-      <c r="ST3" s="5"/>
-      <c r="SU3" s="5"/>
-      <c r="SV3" s="5"/>
-      <c r="SW3" s="5"/>
-      <c r="SX3" s="5"/>
-      <c r="SY3" s="5"/>
-      <c r="SZ3" s="5"/>
-      <c r="TA3" s="5"/>
-      <c r="TB3" s="5"/>
-      <c r="TC3" s="5"/>
-      <c r="TD3" s="5"/>
-      <c r="TE3" s="5"/>
-      <c r="TF3" s="5"/>
-      <c r="TG3" s="5"/>
-      <c r="TH3" s="5"/>
-      <c r="TI3" s="5"/>
-      <c r="TJ3" s="5"/>
-      <c r="TK3" s="5"/>
-      <c r="TL3" s="5"/>
-      <c r="TM3" s="5"/>
-      <c r="TN3" s="5"/>
-      <c r="TO3" s="5"/>
-      <c r="TP3" s="5"/>
-      <c r="TQ3" s="5"/>
-      <c r="TR3" s="5"/>
-      <c r="TS3" s="5"/>
-      <c r="TT3" s="5"/>
-      <c r="TU3" s="5"/>
-      <c r="TV3" s="5"/>
-      <c r="TW3" s="5"/>
-      <c r="TX3" s="5"/>
-      <c r="TY3" s="5"/>
-      <c r="TZ3" s="5"/>
-      <c r="UA3" s="5"/>
-      <c r="UB3" s="5"/>
-      <c r="UC3" s="5"/>
-      <c r="UD3" s="5"/>
-      <c r="UE3" s="5"/>
-      <c r="UF3" s="5"/>
-      <c r="UG3" s="5"/>
-      <c r="UH3" s="5"/>
-      <c r="UI3" s="5"/>
-      <c r="UJ3" s="5"/>
-      <c r="UK3" s="5"/>
-      <c r="UL3" s="5"/>
-      <c r="UM3" s="5"/>
-      <c r="UN3" s="5"/>
-      <c r="UO3" s="5"/>
-      <c r="UP3" s="5"/>
-      <c r="UQ3" s="5"/>
-      <c r="UR3" s="5"/>
-      <c r="US3" s="5"/>
-      <c r="UT3" s="5"/>
-      <c r="UU3" s="5"/>
-      <c r="UV3" s="5"/>
-      <c r="UW3" s="5"/>
-      <c r="UX3" s="5"/>
-      <c r="UY3" s="5"/>
-      <c r="UZ3" s="5"/>
-      <c r="VA3" s="5"/>
-      <c r="VB3" s="5"/>
-      <c r="VC3" s="5"/>
-      <c r="VD3" s="5"/>
-      <c r="VE3" s="5"/>
-      <c r="VF3" s="5"/>
-      <c r="VG3" s="5"/>
-      <c r="VH3" s="5"/>
-      <c r="VI3" s="5"/>
-      <c r="VJ3" s="5"/>
-      <c r="VK3" s="5"/>
-      <c r="VL3" s="5"/>
-      <c r="VM3" s="5"/>
-      <c r="VN3" s="5"/>
-      <c r="VO3" s="5"/>
-      <c r="VP3" s="5"/>
-      <c r="VQ3" s="5"/>
-      <c r="VR3" s="5"/>
-      <c r="VS3" s="5"/>
-      <c r="VT3" s="5"/>
-      <c r="VU3" s="5"/>
-      <c r="VV3" s="5"/>
-      <c r="VW3" s="5"/>
-      <c r="VX3" s="5"/>
-      <c r="VY3" s="5"/>
-      <c r="VZ3" s="5"/>
-      <c r="WA3" s="5"/>
-      <c r="WB3" s="5"/>
-      <c r="WC3" s="5"/>
-      <c r="WD3" s="5"/>
-      <c r="WE3" s="5"/>
-      <c r="WF3" s="5"/>
-      <c r="WG3" s="5"/>
-      <c r="WH3" s="5"/>
-      <c r="WI3" s="5"/>
-      <c r="WJ3" s="5"/>
-      <c r="WK3" s="5"/>
-      <c r="WL3" s="5"/>
-      <c r="WM3" s="5"/>
-      <c r="WN3" s="5"/>
-      <c r="WO3" s="5"/>
-      <c r="WP3" s="5"/>
-      <c r="WQ3" s="5"/>
-      <c r="WR3" s="5"/>
-      <c r="WS3" s="5"/>
-      <c r="WT3" s="5"/>
-      <c r="WU3" s="5"/>
-      <c r="WV3" s="5"/>
-      <c r="WW3" s="5"/>
-      <c r="WX3" s="5"/>
-      <c r="WY3" s="5"/>
-      <c r="WZ3" s="5"/>
-      <c r="XA3" s="5"/>
-      <c r="XB3" s="5"/>
-      <c r="XC3" s="5"/>
-      <c r="XD3" s="5"/>
-      <c r="XE3" s="5"/>
-      <c r="XF3" s="5"/>
-      <c r="XG3" s="5"/>
-      <c r="XH3" s="5"/>
-      <c r="XI3" s="5"/>
-      <c r="XJ3" s="5"/>
-      <c r="XK3" s="5"/>
-      <c r="XL3" s="5"/>
-      <c r="XM3" s="5"/>
-      <c r="XN3" s="5"/>
-      <c r="XO3" s="5"/>
-      <c r="XP3" s="5"/>
-      <c r="XQ3" s="5"/>
-      <c r="XR3" s="5"/>
-      <c r="XS3" s="5"/>
-      <c r="XT3" s="5"/>
-      <c r="XU3" s="5"/>
-      <c r="XV3" s="5"/>
-      <c r="XW3" s="5"/>
-      <c r="XX3" s="5"/>
-      <c r="XY3" s="5"/>
-      <c r="XZ3" s="5"/>
-      <c r="YA3" s="5"/>
-      <c r="YB3" s="5"/>
-      <c r="YC3" s="5"/>
-      <c r="YD3" s="5"/>
-      <c r="YE3" s="5"/>
-      <c r="YF3" s="5"/>
-      <c r="YG3" s="5"/>
-      <c r="YH3" s="5"/>
-      <c r="YI3" s="5"/>
-      <c r="YJ3" s="5"/>
-      <c r="YK3" s="5"/>
-      <c r="YL3" s="5"/>
-      <c r="YM3" s="5"/>
-      <c r="YN3" s="5"/>
-      <c r="YO3" s="5"/>
-      <c r="YP3" s="5"/>
-      <c r="YQ3" s="5"/>
-      <c r="YR3" s="5"/>
-      <c r="YS3" s="5"/>
-      <c r="YT3" s="5"/>
-      <c r="YU3" s="5"/>
-      <c r="YV3" s="5"/>
-      <c r="YW3" s="5"/>
-      <c r="YX3" s="5"/>
-      <c r="YY3" s="5"/>
-      <c r="YZ3" s="5"/>
-      <c r="ZA3" s="5"/>
-      <c r="ZB3" s="5"/>
-      <c r="ZC3" s="5"/>
-      <c r="ZD3" s="5"/>
-      <c r="ZE3" s="5"/>
-      <c r="ZF3" s="5"/>
-      <c r="ZG3" s="5"/>
-      <c r="ZH3" s="5"/>
-      <c r="ZI3" s="5"/>
-      <c r="ZJ3" s="5"/>
-      <c r="ZK3" s="5"/>
-      <c r="ZL3" s="5"/>
-      <c r="ZM3" s="5"/>
-      <c r="ZN3" s="5"/>
-      <c r="ZO3" s="5"/>
-      <c r="ZP3" s="5"/>
-      <c r="ZQ3" s="5"/>
-      <c r="ZR3" s="5"/>
-      <c r="ZS3" s="5"/>
-      <c r="ZT3" s="5"/>
-      <c r="ZU3" s="5"/>
-      <c r="ZV3" s="5"/>
-      <c r="ZW3" s="5"/>
-      <c r="ZX3" s="5"/>
-      <c r="ZY3" s="5"/>
-      <c r="ZZ3" s="5"/>
-      <c r="AAA3" s="5"/>
-      <c r="AAB3" s="5"/>
-      <c r="AAC3" s="5"/>
-      <c r="AAD3" s="5"/>
-      <c r="AAE3" s="5"/>
-      <c r="AAF3" s="5"/>
-      <c r="AAG3" s="5"/>
-      <c r="AAH3" s="5"/>
-      <c r="AAI3" s="5"/>
-      <c r="AAJ3" s="5"/>
-      <c r="AAK3" s="5"/>
-      <c r="AAL3" s="5"/>
-      <c r="AAM3" s="5"/>
-      <c r="AAN3" s="5"/>
-      <c r="AAO3" s="5"/>
-      <c r="AAP3" s="5"/>
-      <c r="AAQ3" s="5"/>
-      <c r="AAR3" s="5"/>
-      <c r="AAS3" s="5"/>
-      <c r="AAT3" s="5"/>
-      <c r="AAU3" s="5"/>
-      <c r="AAV3" s="5"/>
-      <c r="AAW3" s="5"/>
-      <c r="AAX3" s="5"/>
-      <c r="AAY3" s="5"/>
-      <c r="AAZ3" s="5"/>
-      <c r="ABA3" s="5"/>
-      <c r="ABB3" s="5"/>
-      <c r="ABC3" s="5"/>
-      <c r="ABD3" s="5"/>
-      <c r="ABE3" s="5"/>
-      <c r="ABF3" s="5"/>
-      <c r="ABG3" s="5"/>
-      <c r="ABH3" s="5"/>
-      <c r="ABI3" s="5"/>
-      <c r="ABJ3" s="5"/>
-      <c r="ABK3" s="5"/>
-      <c r="ABL3" s="5"/>
-      <c r="ABM3" s="5"/>
-      <c r="ABN3" s="5"/>
-      <c r="ABO3" s="5"/>
-      <c r="ABP3" s="5"/>
-      <c r="ABQ3" s="5"/>
-      <c r="ABR3" s="5"/>
-      <c r="ABS3" s="5"/>
-      <c r="ABT3" s="5"/>
-      <c r="ABU3" s="5"/>
-      <c r="ABV3" s="5"/>
-      <c r="ABW3" s="5"/>
-      <c r="ABX3" s="5"/>
-      <c r="ABY3" s="5"/>
-      <c r="ABZ3" s="5"/>
-      <c r="ACA3" s="5"/>
-      <c r="ACB3" s="5"/>
-      <c r="ACC3" s="5"/>
-      <c r="ACD3" s="5"/>
-      <c r="ACE3" s="5"/>
-      <c r="ACF3" s="5"/>
-      <c r="ACG3" s="5"/>
-      <c r="ACH3" s="5"/>
-      <c r="ACI3" s="5"/>
-      <c r="ACJ3" s="5"/>
-      <c r="ACK3" s="5"/>
-      <c r="ACL3" s="5"/>
-      <c r="ACM3" s="5"/>
-      <c r="ACN3" s="5"/>
-      <c r="ACO3" s="5"/>
-      <c r="ACP3" s="5"/>
-      <c r="ACQ3" s="5"/>
-      <c r="ACR3" s="5"/>
-      <c r="ACS3" s="5"/>
-      <c r="ACT3" s="5"/>
-      <c r="ACU3" s="5"/>
-      <c r="ACV3" s="5"/>
-      <c r="ACW3" s="5"/>
-      <c r="ACX3" s="5"/>
-      <c r="ACY3" s="5"/>
-      <c r="ACZ3" s="5"/>
-      <c r="ADA3" s="5"/>
-      <c r="ADB3" s="5"/>
-      <c r="ADC3" s="5"/>
-      <c r="ADD3" s="5"/>
-      <c r="ADE3" s="5"/>
-      <c r="ADF3" s="5"/>
-      <c r="ADG3" s="5"/>
-      <c r="ADH3" s="5"/>
-      <c r="ADI3" s="5"/>
-      <c r="ADJ3" s="5"/>
-      <c r="ADK3" s="5"/>
-      <c r="ADL3" s="5"/>
-      <c r="ADM3" s="5"/>
-      <c r="ADN3" s="5"/>
-      <c r="ADO3" s="5"/>
-      <c r="ADP3" s="5"/>
-      <c r="ADQ3" s="5"/>
-      <c r="ADR3" s="5"/>
-      <c r="ADS3" s="5"/>
-      <c r="ADT3" s="5"/>
-      <c r="ADU3" s="5"/>
-      <c r="ADV3" s="5"/>
-      <c r="ADW3" s="5"/>
-      <c r="ADX3" s="5"/>
-      <c r="ADY3" s="5"/>
-      <c r="ADZ3" s="5"/>
-      <c r="AEA3" s="5"/>
-      <c r="AEB3" s="5"/>
-      <c r="AEC3" s="5"/>
-      <c r="AED3" s="5"/>
-      <c r="AEE3" s="5"/>
-      <c r="AEF3" s="5"/>
-      <c r="AEG3" s="5"/>
-      <c r="AEH3" s="5"/>
-      <c r="AEI3" s="5"/>
-      <c r="AEJ3" s="5"/>
-      <c r="AEK3" s="5"/>
-      <c r="AEL3" s="5"/>
-      <c r="AEM3" s="5"/>
-      <c r="AEN3" s="5"/>
-      <c r="AEO3" s="5"/>
-      <c r="AEP3" s="5"/>
-      <c r="AEQ3" s="5"/>
-      <c r="AER3" s="5"/>
-      <c r="AES3" s="5"/>
-      <c r="AET3" s="5"/>
-      <c r="AEU3" s="5"/>
-      <c r="AEV3" s="5"/>
-      <c r="AEW3" s="5"/>
-      <c r="AEX3" s="5"/>
-      <c r="AEY3" s="5"/>
-      <c r="AEZ3" s="5"/>
-      <c r="AFA3" s="5"/>
-      <c r="AFB3" s="5"/>
-      <c r="AFC3" s="5"/>
-      <c r="AFD3" s="5"/>
-      <c r="AFE3" s="5"/>
-      <c r="AFF3" s="5"/>
-      <c r="AFG3" s="5"/>
-      <c r="AFH3" s="5"/>
-      <c r="AFI3" s="5"/>
-      <c r="AFJ3" s="5"/>
-      <c r="AFK3" s="5"/>
-      <c r="AFL3" s="5"/>
-      <c r="AFM3" s="5"/>
-      <c r="AFN3" s="5"/>
-      <c r="AFO3" s="5"/>
-      <c r="AFP3" s="5"/>
-      <c r="AFQ3" s="5"/>
-      <c r="AFR3" s="5"/>
-      <c r="AFS3" s="5"/>
-      <c r="AFT3" s="5"/>
-      <c r="AFU3" s="5"/>
-      <c r="AFV3" s="5"/>
-      <c r="AFW3" s="5"/>
-      <c r="AFX3" s="5"/>
-      <c r="AFY3" s="5"/>
-      <c r="AFZ3" s="5"/>
-      <c r="AGA3" s="5"/>
-      <c r="AGB3" s="5"/>
-      <c r="AGC3" s="5"/>
-      <c r="AGD3" s="5"/>
-      <c r="AGE3" s="5"/>
-      <c r="AGF3" s="5"/>
-      <c r="AGG3" s="5"/>
-      <c r="AGH3" s="5"/>
-      <c r="AGI3" s="5"/>
-      <c r="AGJ3" s="5"/>
-      <c r="AGK3" s="5"/>
-      <c r="AGL3" s="5"/>
-      <c r="AGM3" s="5"/>
-      <c r="AGN3" s="5"/>
-      <c r="AGO3" s="5"/>
-      <c r="AGP3" s="5"/>
-      <c r="AGQ3" s="5"/>
-      <c r="AGR3" s="5"/>
-      <c r="AGS3" s="5"/>
-      <c r="AGT3" s="5"/>
-      <c r="AGU3" s="5"/>
-      <c r="AGV3" s="5"/>
-      <c r="AGW3" s="5"/>
-      <c r="AGX3" s="5"/>
-      <c r="AGY3" s="5"/>
-      <c r="AGZ3" s="5"/>
-      <c r="AHA3" s="5"/>
-      <c r="AHB3" s="5"/>
-      <c r="AHC3" s="5"/>
-      <c r="AHD3" s="5"/>
-      <c r="AHE3" s="5"/>
-      <c r="AHF3" s="5"/>
-      <c r="AHG3" s="5"/>
-      <c r="AHH3" s="5"/>
-      <c r="AHI3" s="5"/>
-      <c r="AHJ3" s="5"/>
-      <c r="AHK3" s="5"/>
-      <c r="AHL3" s="5"/>
-      <c r="AHM3" s="5"/>
-      <c r="AHN3" s="5"/>
-      <c r="AHO3" s="5"/>
-      <c r="AHP3" s="5"/>
-      <c r="AHQ3" s="5"/>
-      <c r="AHR3" s="5"/>
-      <c r="AHS3" s="5"/>
-      <c r="AHT3" s="5"/>
-      <c r="AHU3" s="5"/>
-      <c r="AHV3" s="5"/>
-      <c r="AHW3" s="5"/>
-      <c r="AHX3" s="5"/>
-      <c r="AHY3" s="5"/>
-      <c r="AHZ3" s="5"/>
-      <c r="AIA3" s="5"/>
-      <c r="AIB3" s="5"/>
-      <c r="AIC3" s="5"/>
-      <c r="AID3" s="5"/>
-      <c r="AIE3" s="5"/>
-      <c r="AIF3" s="5"/>
-      <c r="AIG3" s="5"/>
-      <c r="AIH3" s="5"/>
-      <c r="AII3" s="5"/>
-      <c r="AIJ3" s="5"/>
-      <c r="AIK3" s="5"/>
-      <c r="AIL3" s="5"/>
-      <c r="AIM3" s="5"/>
-      <c r="AIN3" s="5"/>
-      <c r="AIO3" s="5"/>
-      <c r="AIP3" s="5"/>
-      <c r="AIQ3" s="5"/>
-      <c r="AIR3" s="5"/>
-      <c r="AIS3" s="5"/>
-      <c r="AIT3" s="5"/>
-      <c r="AIU3" s="5"/>
-      <c r="AIV3" s="5"/>
-      <c r="AIW3" s="5"/>
-      <c r="AIX3" s="5"/>
-      <c r="AIY3" s="5"/>
-      <c r="AIZ3" s="5"/>
-      <c r="AJA3" s="5"/>
-      <c r="AJB3" s="5"/>
-      <c r="AJC3" s="5"/>
-      <c r="AJD3" s="5"/>
-      <c r="AJE3" s="5"/>
-      <c r="AJF3" s="5"/>
-      <c r="AJG3" s="5"/>
-      <c r="AJH3" s="5"/>
-      <c r="AJI3" s="5"/>
-      <c r="AJJ3" s="5"/>
-      <c r="AJK3" s="5"/>
-      <c r="AJL3" s="5"/>
-      <c r="AJM3" s="5"/>
-      <c r="AJN3" s="5"/>
-      <c r="AJO3" s="5"/>
-      <c r="AJP3" s="5"/>
-      <c r="AJQ3" s="5"/>
-      <c r="AJR3" s="5"/>
-      <c r="AJS3" s="5"/>
-      <c r="AJT3" s="5"/>
-      <c r="AJU3" s="5"/>
-      <c r="AJV3" s="5"/>
-      <c r="AJW3" s="5"/>
-      <c r="AJX3" s="5"/>
-      <c r="AJY3" s="5"/>
-      <c r="AJZ3" s="5"/>
-      <c r="AKA3" s="5"/>
-      <c r="AKB3" s="5"/>
-      <c r="AKC3" s="5"/>
-      <c r="AKD3" s="5"/>
-      <c r="AKE3" s="5"/>
-      <c r="AKF3" s="5"/>
-      <c r="AKG3" s="5"/>
-      <c r="AKH3" s="5"/>
-      <c r="AKI3" s="5"/>
-      <c r="AKJ3" s="5"/>
-      <c r="AKK3" s="5"/>
-      <c r="AKL3" s="5"/>
-      <c r="AKM3" s="5"/>
-      <c r="AKN3" s="5"/>
-      <c r="AKO3" s="5"/>
-      <c r="AKP3" s="5"/>
-      <c r="AKQ3" s="5"/>
-      <c r="AKR3" s="5"/>
-      <c r="AKS3" s="5"/>
-      <c r="AKT3" s="5"/>
-      <c r="AKU3" s="5"/>
-      <c r="AKV3" s="5"/>
-      <c r="AKW3" s="5"/>
-      <c r="AKX3" s="5"/>
-      <c r="AKY3" s="5"/>
-      <c r="AKZ3" s="5"/>
-      <c r="ALA3" s="5"/>
-      <c r="ALB3" s="5"/>
-      <c r="ALC3" s="5"/>
-      <c r="ALD3" s="5"/>
-      <c r="ALE3" s="5"/>
-      <c r="ALF3" s="5"/>
-      <c r="ALG3" s="5"/>
-      <c r="ALH3" s="5"/>
-      <c r="ALI3" s="5"/>
-      <c r="ALJ3" s="5"/>
-      <c r="ALK3" s="5"/>
-      <c r="ALL3" s="5"/>
-      <c r="ALM3" s="5"/>
-      <c r="ALN3" s="5"/>
-      <c r="ALO3" s="5"/>
-      <c r="ALP3" s="5"/>
-      <c r="ALQ3" s="5"/>
-      <c r="ALR3" s="5"/>
-      <c r="ALS3" s="5"/>
-      <c r="ALT3" s="5"/>
-      <c r="ALU3" s="5"/>
-      <c r="ALV3" s="5"/>
-      <c r="ALW3" s="5"/>
-      <c r="ALX3" s="5"/>
-      <c r="ALY3" s="5"/>
-      <c r="ALZ3" s="5"/>
-      <c r="AMA3" s="5"/>
-      <c r="AMB3" s="5"/>
-      <c r="AMC3" s="5"/>
-      <c r="AMD3" s="5"/>
-      <c r="AME3" s="5"/>
-      <c r="AMF3" s="5"/>
-      <c r="AMG3" s="5"/>
-      <c r="AMH3" s="5"/>
-      <c r="AMI3" s="5"/>
-      <c r="AMJ3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="6"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="6"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" s="6"/>
+      <c r="CH3" s="6"/>
+      <c r="CI3" s="6"/>
+      <c r="CJ3" s="6"/>
+      <c r="CK3" s="6"/>
+      <c r="CL3" s="6"/>
+      <c r="CM3" s="6"/>
+      <c r="CN3" s="6"/>
+      <c r="CO3" s="6"/>
+      <c r="CP3" s="6"/>
+      <c r="CQ3" s="6"/>
+      <c r="CR3" s="6"/>
+      <c r="CS3" s="6"/>
+      <c r="CT3" s="6"/>
+      <c r="CU3" s="6"/>
+      <c r="CV3" s="6"/>
+      <c r="CW3" s="6"/>
+      <c r="CX3" s="6"/>
+      <c r="CY3" s="6"/>
+      <c r="CZ3" s="6"/>
+      <c r="DA3" s="6"/>
+      <c r="DB3" s="6"/>
+      <c r="DC3" s="6"/>
+      <c r="DD3" s="6"/>
+      <c r="DE3" s="6"/>
+      <c r="DF3" s="6"/>
+      <c r="DG3" s="6"/>
+      <c r="DH3" s="6"/>
+      <c r="DI3" s="6"/>
+      <c r="DJ3" s="6"/>
+      <c r="DK3" s="6"/>
+      <c r="DL3" s="6"/>
+      <c r="DM3" s="6"/>
+      <c r="DN3" s="6"/>
+      <c r="DO3" s="6"/>
+      <c r="DP3" s="6"/>
+      <c r="DQ3" s="6"/>
+      <c r="DR3" s="6"/>
+      <c r="DS3" s="6"/>
+      <c r="DT3" s="6"/>
+      <c r="DU3" s="6"/>
+      <c r="DV3" s="6"/>
+      <c r="DW3" s="6"/>
+      <c r="DX3" s="6"/>
+      <c r="DY3" s="6"/>
+      <c r="DZ3" s="6"/>
+      <c r="EA3" s="6"/>
+      <c r="EB3" s="6"/>
+      <c r="EC3" s="6"/>
+      <c r="ED3" s="6"/>
+      <c r="EE3" s="6"/>
+      <c r="EF3" s="6"/>
+      <c r="EG3" s="6"/>
+      <c r="EH3" s="6"/>
+      <c r="EI3" s="6"/>
+      <c r="EJ3" s="6"/>
+      <c r="EK3" s="6"/>
+      <c r="EL3" s="6"/>
+      <c r="EM3" s="6"/>
+      <c r="EN3" s="6"/>
+      <c r="EO3" s="6"/>
+      <c r="EP3" s="6"/>
+      <c r="EQ3" s="6"/>
+      <c r="ER3" s="6"/>
+      <c r="ES3" s="6"/>
+      <c r="ET3" s="6"/>
+      <c r="EU3" s="6"/>
+      <c r="EV3" s="6"/>
+      <c r="EW3" s="6"/>
+      <c r="EX3" s="6"/>
+      <c r="EY3" s="6"/>
+      <c r="EZ3" s="6"/>
+      <c r="FA3" s="6"/>
+      <c r="FB3" s="6"/>
+      <c r="FC3" s="6"/>
+      <c r="FD3" s="6"/>
+      <c r="FE3" s="6"/>
+      <c r="FF3" s="6"/>
+      <c r="FG3" s="6"/>
+      <c r="FH3" s="6"/>
+      <c r="FI3" s="6"/>
+      <c r="FJ3" s="6"/>
+      <c r="FK3" s="6"/>
+      <c r="FL3" s="6"/>
+      <c r="FM3" s="6"/>
+      <c r="FN3" s="6"/>
+      <c r="FO3" s="6"/>
+      <c r="FP3" s="6"/>
+      <c r="FQ3" s="6"/>
+      <c r="FR3" s="6"/>
+      <c r="FS3" s="6"/>
+      <c r="FT3" s="6"/>
+      <c r="FU3" s="6"/>
+      <c r="FV3" s="6"/>
+      <c r="FW3" s="6"/>
+      <c r="FX3" s="6"/>
+      <c r="FY3" s="6"/>
+      <c r="FZ3" s="6"/>
+      <c r="GA3" s="6"/>
+      <c r="GB3" s="6"/>
+      <c r="GC3" s="6"/>
+      <c r="GD3" s="6"/>
+      <c r="GE3" s="6"/>
+      <c r="GF3" s="6"/>
+      <c r="GG3" s="6"/>
+      <c r="GH3" s="6"/>
+      <c r="GI3" s="6"/>
+      <c r="GJ3" s="6"/>
+      <c r="GK3" s="6"/>
+      <c r="GL3" s="6"/>
+      <c r="GM3" s="6"/>
+      <c r="GN3" s="6"/>
+      <c r="GO3" s="6"/>
+      <c r="GP3" s="6"/>
+      <c r="GQ3" s="6"/>
+      <c r="GR3" s="6"/>
+      <c r="GS3" s="6"/>
+      <c r="GT3" s="6"/>
+      <c r="GU3" s="6"/>
+      <c r="GV3" s="6"/>
+      <c r="GW3" s="6"/>
+      <c r="GX3" s="6"/>
+      <c r="GY3" s="6"/>
+      <c r="GZ3" s="6"/>
+      <c r="HA3" s="6"/>
+      <c r="HB3" s="6"/>
+      <c r="HC3" s="6"/>
+      <c r="HD3" s="6"/>
+      <c r="HE3" s="6"/>
+      <c r="HF3" s="6"/>
+      <c r="HG3" s="6"/>
+      <c r="HH3" s="6"/>
+      <c r="HI3" s="6"/>
+      <c r="HJ3" s="6"/>
+      <c r="HK3" s="6"/>
+      <c r="HL3" s="6"/>
+      <c r="HM3" s="6"/>
+      <c r="HN3" s="6"/>
+      <c r="HO3" s="6"/>
+      <c r="HP3" s="6"/>
+      <c r="HQ3" s="6"/>
+      <c r="HR3" s="6"/>
+      <c r="HS3" s="6"/>
+      <c r="HT3" s="6"/>
+      <c r="HU3" s="6"/>
+      <c r="HV3" s="6"/>
+      <c r="HW3" s="6"/>
+      <c r="HX3" s="6"/>
+      <c r="HY3" s="6"/>
+      <c r="HZ3" s="6"/>
+      <c r="IA3" s="6"/>
+      <c r="IB3" s="6"/>
+      <c r="IC3" s="6"/>
+      <c r="ID3" s="6"/>
+      <c r="IE3" s="6"/>
+      <c r="IF3" s="6"/>
+      <c r="IG3" s="6"/>
+      <c r="IH3" s="6"/>
+      <c r="II3" s="6"/>
+      <c r="IJ3" s="6"/>
+      <c r="IK3" s="6"/>
+      <c r="IL3" s="6"/>
+      <c r="IM3" s="6"/>
+      <c r="IN3" s="6"/>
+      <c r="IO3" s="6"/>
+      <c r="IP3" s="6"/>
+      <c r="IQ3" s="6"/>
+      <c r="IR3" s="6"/>
+      <c r="IS3" s="6"/>
+      <c r="IT3" s="6"/>
+      <c r="IU3" s="6"/>
+      <c r="IV3" s="6"/>
+      <c r="IW3" s="6"/>
+      <c r="IX3" s="6"/>
+      <c r="IY3" s="6"/>
+      <c r="IZ3" s="6"/>
+      <c r="JA3" s="6"/>
+      <c r="JB3" s="6"/>
+      <c r="JC3" s="6"/>
+      <c r="JD3" s="6"/>
+      <c r="JE3" s="6"/>
+      <c r="JF3" s="6"/>
+      <c r="JG3" s="6"/>
+      <c r="JH3" s="6"/>
+      <c r="JI3" s="6"/>
+      <c r="JJ3" s="6"/>
+      <c r="JK3" s="6"/>
+      <c r="JL3" s="6"/>
+      <c r="JM3" s="6"/>
+      <c r="JN3" s="6"/>
+      <c r="JO3" s="6"/>
+      <c r="JP3" s="6"/>
+      <c r="JQ3" s="6"/>
+      <c r="JR3" s="6"/>
+      <c r="JS3" s="6"/>
+      <c r="JT3" s="6"/>
+      <c r="JU3" s="6"/>
+      <c r="JV3" s="6"/>
+      <c r="JW3" s="6"/>
+      <c r="JX3" s="6"/>
+      <c r="JY3" s="6"/>
+      <c r="JZ3" s="6"/>
+      <c r="KA3" s="6"/>
+      <c r="KB3" s="6"/>
+      <c r="KC3" s="6"/>
+      <c r="KD3" s="6"/>
+      <c r="KE3" s="6"/>
+      <c r="KF3" s="6"/>
+      <c r="KG3" s="6"/>
+      <c r="KH3" s="6"/>
+      <c r="KI3" s="6"/>
+      <c r="KJ3" s="6"/>
+      <c r="KK3" s="6"/>
+      <c r="KL3" s="6"/>
+      <c r="KM3" s="6"/>
+      <c r="KN3" s="6"/>
+      <c r="KO3" s="6"/>
+      <c r="KP3" s="6"/>
+      <c r="KQ3" s="6"/>
+      <c r="KR3" s="6"/>
+      <c r="KS3" s="6"/>
+      <c r="KT3" s="6"/>
+      <c r="KU3" s="6"/>
+      <c r="KV3" s="6"/>
+      <c r="KW3" s="6"/>
+      <c r="KX3" s="6"/>
+      <c r="KY3" s="6"/>
+      <c r="KZ3" s="6"/>
+      <c r="LA3" s="6"/>
+      <c r="LB3" s="6"/>
+      <c r="LC3" s="6"/>
+      <c r="LD3" s="6"/>
+      <c r="LE3" s="6"/>
+      <c r="LF3" s="6"/>
+      <c r="LG3" s="6"/>
+      <c r="LH3" s="6"/>
+      <c r="LI3" s="6"/>
+      <c r="LJ3" s="6"/>
+      <c r="LK3" s="6"/>
+      <c r="LL3" s="6"/>
+      <c r="LM3" s="6"/>
+      <c r="LN3" s="6"/>
+      <c r="LO3" s="6"/>
+      <c r="LP3" s="6"/>
+      <c r="LQ3" s="6"/>
+      <c r="LR3" s="6"/>
+      <c r="LS3" s="6"/>
+      <c r="LT3" s="6"/>
+      <c r="LU3" s="6"/>
+      <c r="LV3" s="6"/>
+      <c r="LW3" s="6"/>
+      <c r="LX3" s="6"/>
+      <c r="LY3" s="6"/>
+      <c r="LZ3" s="6"/>
+      <c r="MA3" s="6"/>
+      <c r="MB3" s="6"/>
+      <c r="MC3" s="6"/>
+      <c r="MD3" s="6"/>
+      <c r="ME3" s="6"/>
+      <c r="MF3" s="6"/>
+      <c r="MG3" s="6"/>
+      <c r="MH3" s="6"/>
+      <c r="MI3" s="6"/>
+      <c r="MJ3" s="6"/>
+      <c r="MK3" s="6"/>
+      <c r="ML3" s="6"/>
+      <c r="MM3" s="6"/>
+      <c r="MN3" s="6"/>
+      <c r="MO3" s="6"/>
+      <c r="MP3" s="6"/>
+      <c r="MQ3" s="6"/>
+      <c r="MR3" s="6"/>
+      <c r="MS3" s="6"/>
+      <c r="MT3" s="6"/>
+      <c r="MU3" s="6"/>
+      <c r="MV3" s="6"/>
+      <c r="MW3" s="6"/>
+      <c r="MX3" s="6"/>
+      <c r="MY3" s="6"/>
+      <c r="MZ3" s="6"/>
+      <c r="NA3" s="6"/>
+      <c r="NB3" s="6"/>
+      <c r="NC3" s="6"/>
+      <c r="ND3" s="6"/>
+      <c r="NE3" s="6"/>
+      <c r="NF3" s="6"/>
+      <c r="NG3" s="6"/>
+      <c r="NH3" s="6"/>
+      <c r="NI3" s="6"/>
+      <c r="NJ3" s="6"/>
+      <c r="NK3" s="6"/>
+      <c r="NL3" s="6"/>
+      <c r="NM3" s="6"/>
+      <c r="NN3" s="6"/>
+      <c r="NO3" s="6"/>
+      <c r="NP3" s="6"/>
+      <c r="NQ3" s="6"/>
+      <c r="NR3" s="6"/>
+      <c r="NS3" s="6"/>
+      <c r="NT3" s="6"/>
+      <c r="NU3" s="6"/>
+      <c r="NV3" s="6"/>
+      <c r="NW3" s="6"/>
+      <c r="NX3" s="6"/>
+      <c r="NY3" s="6"/>
+      <c r="NZ3" s="6"/>
+      <c r="OA3" s="6"/>
+      <c r="OB3" s="6"/>
+      <c r="OC3" s="6"/>
+      <c r="OD3" s="6"/>
+      <c r="OE3" s="6"/>
+      <c r="OF3" s="6"/>
+      <c r="OG3" s="6"/>
+      <c r="OH3" s="6"/>
+      <c r="OI3" s="6"/>
+      <c r="OJ3" s="6"/>
+      <c r="OK3" s="6"/>
+      <c r="OL3" s="6"/>
+      <c r="OM3" s="6"/>
+      <c r="ON3" s="6"/>
+      <c r="OO3" s="6"/>
+      <c r="OP3" s="6"/>
+      <c r="OQ3" s="6"/>
+      <c r="OR3" s="6"/>
+      <c r="OS3" s="6"/>
+      <c r="OT3" s="6"/>
+      <c r="OU3" s="6"/>
+      <c r="OV3" s="6"/>
+      <c r="OW3" s="6"/>
+      <c r="OX3" s="6"/>
+      <c r="OY3" s="6"/>
+      <c r="OZ3" s="6"/>
+      <c r="PA3" s="6"/>
+      <c r="PB3" s="6"/>
+      <c r="PC3" s="6"/>
+      <c r="PD3" s="6"/>
+      <c r="PE3" s="6"/>
+      <c r="PF3" s="6"/>
+      <c r="PG3" s="6"/>
+      <c r="PH3" s="6"/>
+      <c r="PI3" s="6"/>
+      <c r="PJ3" s="6"/>
+      <c r="PK3" s="6"/>
+      <c r="PL3" s="6"/>
+      <c r="PM3" s="6"/>
+      <c r="PN3" s="6"/>
+      <c r="PO3" s="6"/>
+      <c r="PP3" s="6"/>
+      <c r="PQ3" s="6"/>
+      <c r="PR3" s="6"/>
+      <c r="PS3" s="6"/>
+      <c r="PT3" s="6"/>
+      <c r="PU3" s="6"/>
+      <c r="PV3" s="6"/>
+      <c r="PW3" s="6"/>
+      <c r="PX3" s="6"/>
+      <c r="PY3" s="6"/>
+      <c r="PZ3" s="6"/>
+      <c r="QA3" s="6"/>
+      <c r="QB3" s="6"/>
+      <c r="QC3" s="6"/>
+      <c r="QD3" s="6"/>
+      <c r="QE3" s="6"/>
+      <c r="QF3" s="6"/>
+      <c r="QG3" s="6"/>
+      <c r="QH3" s="6"/>
+      <c r="QI3" s="6"/>
+      <c r="QJ3" s="6"/>
+      <c r="QK3" s="6"/>
+      <c r="QL3" s="6"/>
+      <c r="QM3" s="6"/>
+      <c r="QN3" s="6"/>
+      <c r="QO3" s="6"/>
+      <c r="QP3" s="6"/>
+      <c r="QQ3" s="6"/>
+      <c r="QR3" s="6"/>
+      <c r="QS3" s="6"/>
+      <c r="QT3" s="6"/>
+      <c r="QU3" s="6"/>
+      <c r="QV3" s="6"/>
+      <c r="QW3" s="6"/>
+      <c r="QX3" s="6"/>
+      <c r="QY3" s="6"/>
+      <c r="QZ3" s="6"/>
+      <c r="RA3" s="6"/>
+      <c r="RB3" s="6"/>
+      <c r="RC3" s="6"/>
+      <c r="RD3" s="6"/>
+      <c r="RE3" s="6"/>
+      <c r="RF3" s="6"/>
+      <c r="RG3" s="6"/>
+      <c r="RH3" s="6"/>
+      <c r="RI3" s="6"/>
+      <c r="RJ3" s="6"/>
+      <c r="RK3" s="6"/>
+      <c r="RL3" s="6"/>
+      <c r="RM3" s="6"/>
+      <c r="RN3" s="6"/>
+      <c r="RO3" s="6"/>
+      <c r="RP3" s="6"/>
+      <c r="RQ3" s="6"/>
+      <c r="RR3" s="6"/>
+      <c r="RS3" s="6"/>
+      <c r="RT3" s="6"/>
+      <c r="RU3" s="6"/>
+      <c r="RV3" s="6"/>
+      <c r="RW3" s="6"/>
+      <c r="RX3" s="6"/>
+      <c r="RY3" s="6"/>
+      <c r="RZ3" s="6"/>
+      <c r="SA3" s="6"/>
+      <c r="SB3" s="6"/>
+      <c r="SC3" s="6"/>
+      <c r="SD3" s="6"/>
+      <c r="SE3" s="6"/>
+      <c r="SF3" s="6"/>
+      <c r="SG3" s="6"/>
+      <c r="SH3" s="6"/>
+      <c r="SI3" s="6"/>
+      <c r="SJ3" s="6"/>
+      <c r="SK3" s="6"/>
+      <c r="SL3" s="6"/>
+      <c r="SM3" s="6"/>
+      <c r="SN3" s="6"/>
+      <c r="SO3" s="6"/>
+      <c r="SP3" s="6"/>
+      <c r="SQ3" s="6"/>
+      <c r="SR3" s="6"/>
+      <c r="SS3" s="6"/>
+      <c r="ST3" s="6"/>
+      <c r="SU3" s="6"/>
+      <c r="SV3" s="6"/>
+      <c r="SW3" s="6"/>
+      <c r="SX3" s="6"/>
+      <c r="SY3" s="6"/>
+      <c r="SZ3" s="6"/>
+      <c r="TA3" s="6"/>
+      <c r="TB3" s="6"/>
+      <c r="TC3" s="6"/>
+      <c r="TD3" s="6"/>
+      <c r="TE3" s="6"/>
+      <c r="TF3" s="6"/>
+      <c r="TG3" s="6"/>
+      <c r="TH3" s="6"/>
+      <c r="TI3" s="6"/>
+      <c r="TJ3" s="6"/>
+      <c r="TK3" s="6"/>
+      <c r="TL3" s="6"/>
+      <c r="TM3" s="6"/>
+      <c r="TN3" s="6"/>
+      <c r="TO3" s="6"/>
+      <c r="TP3" s="6"/>
+      <c r="TQ3" s="6"/>
+      <c r="TR3" s="6"/>
+      <c r="TS3" s="6"/>
+      <c r="TT3" s="6"/>
+      <c r="TU3" s="6"/>
+      <c r="TV3" s="6"/>
+      <c r="TW3" s="6"/>
+      <c r="TX3" s="6"/>
+      <c r="TY3" s="6"/>
+      <c r="TZ3" s="6"/>
+      <c r="UA3" s="6"/>
+      <c r="UB3" s="6"/>
+      <c r="UC3" s="6"/>
+      <c r="UD3" s="6"/>
+      <c r="UE3" s="6"/>
+      <c r="UF3" s="6"/>
+      <c r="UG3" s="6"/>
+      <c r="UH3" s="6"/>
+      <c r="UI3" s="6"/>
+      <c r="UJ3" s="6"/>
+      <c r="UK3" s="6"/>
+      <c r="UL3" s="6"/>
+      <c r="UM3" s="6"/>
+      <c r="UN3" s="6"/>
+      <c r="UO3" s="6"/>
+      <c r="UP3" s="6"/>
+      <c r="UQ3" s="6"/>
+      <c r="UR3" s="6"/>
+      <c r="US3" s="6"/>
+      <c r="UT3" s="6"/>
+      <c r="UU3" s="6"/>
+      <c r="UV3" s="6"/>
+      <c r="UW3" s="6"/>
+      <c r="UX3" s="6"/>
+      <c r="UY3" s="6"/>
+      <c r="UZ3" s="6"/>
+      <c r="VA3" s="6"/>
+      <c r="VB3" s="6"/>
+      <c r="VC3" s="6"/>
+      <c r="VD3" s="6"/>
+      <c r="VE3" s="6"/>
+      <c r="VF3" s="6"/>
+      <c r="VG3" s="6"/>
+      <c r="VH3" s="6"/>
+      <c r="VI3" s="6"/>
+      <c r="VJ3" s="6"/>
+      <c r="VK3" s="6"/>
+      <c r="VL3" s="6"/>
+      <c r="VM3" s="6"/>
+      <c r="VN3" s="6"/>
+      <c r="VO3" s="6"/>
+      <c r="VP3" s="6"/>
+      <c r="VQ3" s="6"/>
+      <c r="VR3" s="6"/>
+      <c r="VS3" s="6"/>
+      <c r="VT3" s="6"/>
+      <c r="VU3" s="6"/>
+      <c r="VV3" s="6"/>
+      <c r="VW3" s="6"/>
+      <c r="VX3" s="6"/>
+      <c r="VY3" s="6"/>
+      <c r="VZ3" s="6"/>
+      <c r="WA3" s="6"/>
+      <c r="WB3" s="6"/>
+      <c r="WC3" s="6"/>
+      <c r="WD3" s="6"/>
+      <c r="WE3" s="6"/>
+      <c r="WF3" s="6"/>
+      <c r="WG3" s="6"/>
+      <c r="WH3" s="6"/>
+      <c r="WI3" s="6"/>
+      <c r="WJ3" s="6"/>
+      <c r="WK3" s="6"/>
+      <c r="WL3" s="6"/>
+      <c r="WM3" s="6"/>
+      <c r="WN3" s="6"/>
+      <c r="WO3" s="6"/>
+      <c r="WP3" s="6"/>
+      <c r="WQ3" s="6"/>
+      <c r="WR3" s="6"/>
+      <c r="WS3" s="6"/>
+      <c r="WT3" s="6"/>
+      <c r="WU3" s="6"/>
+      <c r="WV3" s="6"/>
+      <c r="WW3" s="6"/>
+      <c r="WX3" s="6"/>
+      <c r="WY3" s="6"/>
+      <c r="WZ3" s="6"/>
+      <c r="XA3" s="6"/>
+      <c r="XB3" s="6"/>
+      <c r="XC3" s="6"/>
+      <c r="XD3" s="6"/>
+      <c r="XE3" s="6"/>
+      <c r="XF3" s="6"/>
+      <c r="XG3" s="6"/>
+      <c r="XH3" s="6"/>
+      <c r="XI3" s="6"/>
+      <c r="XJ3" s="6"/>
+      <c r="XK3" s="6"/>
+      <c r="XL3" s="6"/>
+      <c r="XM3" s="6"/>
+      <c r="XN3" s="6"/>
+      <c r="XO3" s="6"/>
+      <c r="XP3" s="6"/>
+      <c r="XQ3" s="6"/>
+      <c r="XR3" s="6"/>
+      <c r="XS3" s="6"/>
+      <c r="XT3" s="6"/>
+      <c r="XU3" s="6"/>
+      <c r="XV3" s="6"/>
+      <c r="XW3" s="6"/>
+      <c r="XX3" s="6"/>
+      <c r="XY3" s="6"/>
+      <c r="XZ3" s="6"/>
+      <c r="YA3" s="6"/>
+      <c r="YB3" s="6"/>
+      <c r="YC3" s="6"/>
+      <c r="YD3" s="6"/>
+      <c r="YE3" s="6"/>
+      <c r="YF3" s="6"/>
+      <c r="YG3" s="6"/>
+      <c r="YH3" s="6"/>
+      <c r="YI3" s="6"/>
+      <c r="YJ3" s="6"/>
+      <c r="YK3" s="6"/>
+      <c r="YL3" s="6"/>
+      <c r="YM3" s="6"/>
+      <c r="YN3" s="6"/>
+      <c r="YO3" s="6"/>
+      <c r="YP3" s="6"/>
+      <c r="YQ3" s="6"/>
+      <c r="YR3" s="6"/>
+      <c r="YS3" s="6"/>
+      <c r="YT3" s="6"/>
+      <c r="YU3" s="6"/>
+      <c r="YV3" s="6"/>
+      <c r="YW3" s="6"/>
+      <c r="YX3" s="6"/>
+      <c r="YY3" s="6"/>
+      <c r="YZ3" s="6"/>
+      <c r="ZA3" s="6"/>
+      <c r="ZB3" s="6"/>
+      <c r="ZC3" s="6"/>
+      <c r="ZD3" s="6"/>
+      <c r="ZE3" s="6"/>
+      <c r="ZF3" s="6"/>
+      <c r="ZG3" s="6"/>
+      <c r="ZH3" s="6"/>
+      <c r="ZI3" s="6"/>
+      <c r="ZJ3" s="6"/>
+      <c r="ZK3" s="6"/>
+      <c r="ZL3" s="6"/>
+      <c r="ZM3" s="6"/>
+      <c r="ZN3" s="6"/>
+      <c r="ZO3" s="6"/>
+      <c r="ZP3" s="6"/>
+      <c r="ZQ3" s="6"/>
+      <c r="ZR3" s="6"/>
+      <c r="ZS3" s="6"/>
+      <c r="ZT3" s="6"/>
+      <c r="ZU3" s="6"/>
+      <c r="ZV3" s="6"/>
+      <c r="ZW3" s="6"/>
+      <c r="ZX3" s="6"/>
+      <c r="ZY3" s="6"/>
+      <c r="ZZ3" s="6"/>
+      <c r="AAA3" s="6"/>
+      <c r="AAB3" s="6"/>
+      <c r="AAC3" s="6"/>
+      <c r="AAD3" s="6"/>
+      <c r="AAE3" s="6"/>
+      <c r="AAF3" s="6"/>
+      <c r="AAG3" s="6"/>
+      <c r="AAH3" s="6"/>
+      <c r="AAI3" s="6"/>
+      <c r="AAJ3" s="6"/>
+      <c r="AAK3" s="6"/>
+      <c r="AAL3" s="6"/>
+      <c r="AAM3" s="6"/>
+      <c r="AAN3" s="6"/>
+      <c r="AAO3" s="6"/>
+      <c r="AAP3" s="6"/>
+      <c r="AAQ3" s="6"/>
+      <c r="AAR3" s="6"/>
+      <c r="AAS3" s="6"/>
+      <c r="AAT3" s="6"/>
+      <c r="AAU3" s="6"/>
+      <c r="AAV3" s="6"/>
+      <c r="AAW3" s="6"/>
+      <c r="AAX3" s="6"/>
+      <c r="AAY3" s="6"/>
+      <c r="AAZ3" s="6"/>
+      <c r="ABA3" s="6"/>
+      <c r="ABB3" s="6"/>
+      <c r="ABC3" s="6"/>
+      <c r="ABD3" s="6"/>
+      <c r="ABE3" s="6"/>
+      <c r="ABF3" s="6"/>
+      <c r="ABG3" s="6"/>
+      <c r="ABH3" s="6"/>
+      <c r="ABI3" s="6"/>
+      <c r="ABJ3" s="6"/>
+      <c r="ABK3" s="6"/>
+      <c r="ABL3" s="6"/>
+      <c r="ABM3" s="6"/>
+      <c r="ABN3" s="6"/>
+      <c r="ABO3" s="6"/>
+      <c r="ABP3" s="6"/>
+      <c r="ABQ3" s="6"/>
+      <c r="ABR3" s="6"/>
+      <c r="ABS3" s="6"/>
+      <c r="ABT3" s="6"/>
+      <c r="ABU3" s="6"/>
+      <c r="ABV3" s="6"/>
+      <c r="ABW3" s="6"/>
+      <c r="ABX3" s="6"/>
+      <c r="ABY3" s="6"/>
+      <c r="ABZ3" s="6"/>
+      <c r="ACA3" s="6"/>
+      <c r="ACB3" s="6"/>
+      <c r="ACC3" s="6"/>
+      <c r="ACD3" s="6"/>
+      <c r="ACE3" s="6"/>
+      <c r="ACF3" s="6"/>
+      <c r="ACG3" s="6"/>
+      <c r="ACH3" s="6"/>
+      <c r="ACI3" s="6"/>
+      <c r="ACJ3" s="6"/>
+      <c r="ACK3" s="6"/>
+      <c r="ACL3" s="6"/>
+      <c r="ACM3" s="6"/>
+      <c r="ACN3" s="6"/>
+      <c r="ACO3" s="6"/>
+      <c r="ACP3" s="6"/>
+      <c r="ACQ3" s="6"/>
+      <c r="ACR3" s="6"/>
+      <c r="ACS3" s="6"/>
+      <c r="ACT3" s="6"/>
+      <c r="ACU3" s="6"/>
+      <c r="ACV3" s="6"/>
+      <c r="ACW3" s="6"/>
+      <c r="ACX3" s="6"/>
+      <c r="ACY3" s="6"/>
+      <c r="ACZ3" s="6"/>
+      <c r="ADA3" s="6"/>
+      <c r="ADB3" s="6"/>
+      <c r="ADC3" s="6"/>
+      <c r="ADD3" s="6"/>
+      <c r="ADE3" s="6"/>
+      <c r="ADF3" s="6"/>
+      <c r="ADG3" s="6"/>
+      <c r="ADH3" s="6"/>
+      <c r="ADI3" s="6"/>
+      <c r="ADJ3" s="6"/>
+      <c r="ADK3" s="6"/>
+      <c r="ADL3" s="6"/>
+      <c r="ADM3" s="6"/>
+      <c r="ADN3" s="6"/>
+      <c r="ADO3" s="6"/>
+      <c r="ADP3" s="6"/>
+      <c r="ADQ3" s="6"/>
+      <c r="ADR3" s="6"/>
+      <c r="ADS3" s="6"/>
+      <c r="ADT3" s="6"/>
+      <c r="ADU3" s="6"/>
+      <c r="ADV3" s="6"/>
+      <c r="ADW3" s="6"/>
+      <c r="ADX3" s="6"/>
+      <c r="ADY3" s="6"/>
+      <c r="ADZ3" s="6"/>
+      <c r="AEA3" s="6"/>
+      <c r="AEB3" s="6"/>
+      <c r="AEC3" s="6"/>
+      <c r="AED3" s="6"/>
+      <c r="AEE3" s="6"/>
+      <c r="AEF3" s="6"/>
+      <c r="AEG3" s="6"/>
+      <c r="AEH3" s="6"/>
+      <c r="AEI3" s="6"/>
+      <c r="AEJ3" s="6"/>
+      <c r="AEK3" s="6"/>
+      <c r="AEL3" s="6"/>
+      <c r="AEM3" s="6"/>
+      <c r="AEN3" s="6"/>
+      <c r="AEO3" s="6"/>
+      <c r="AEP3" s="6"/>
+      <c r="AEQ3" s="6"/>
+      <c r="AER3" s="6"/>
+      <c r="AES3" s="6"/>
+      <c r="AET3" s="6"/>
+      <c r="AEU3" s="6"/>
+      <c r="AEV3" s="6"/>
+      <c r="AEW3" s="6"/>
+      <c r="AEX3" s="6"/>
+      <c r="AEY3" s="6"/>
+      <c r="AEZ3" s="6"/>
+      <c r="AFA3" s="6"/>
+      <c r="AFB3" s="6"/>
+      <c r="AFC3" s="6"/>
+      <c r="AFD3" s="6"/>
+      <c r="AFE3" s="6"/>
+      <c r="AFF3" s="6"/>
+      <c r="AFG3" s="6"/>
+      <c r="AFH3" s="6"/>
+      <c r="AFI3" s="6"/>
+      <c r="AFJ3" s="6"/>
+      <c r="AFK3" s="6"/>
+      <c r="AFL3" s="6"/>
+      <c r="AFM3" s="6"/>
+      <c r="AFN3" s="6"/>
+      <c r="AFO3" s="6"/>
+      <c r="AFP3" s="6"/>
+      <c r="AFQ3" s="6"/>
+      <c r="AFR3" s="6"/>
+      <c r="AFS3" s="6"/>
+      <c r="AFT3" s="6"/>
+      <c r="AFU3" s="6"/>
+      <c r="AFV3" s="6"/>
+      <c r="AFW3" s="6"/>
+      <c r="AFX3" s="6"/>
+      <c r="AFY3" s="6"/>
+      <c r="AFZ3" s="6"/>
+      <c r="AGA3" s="6"/>
+      <c r="AGB3" s="6"/>
+      <c r="AGC3" s="6"/>
+      <c r="AGD3" s="6"/>
+      <c r="AGE3" s="6"/>
+      <c r="AGF3" s="6"/>
+      <c r="AGG3" s="6"/>
+      <c r="AGH3" s="6"/>
+      <c r="AGI3" s="6"/>
+      <c r="AGJ3" s="6"/>
+      <c r="AGK3" s="6"/>
+      <c r="AGL3" s="6"/>
+      <c r="AGM3" s="6"/>
+      <c r="AGN3" s="6"/>
+      <c r="AGO3" s="6"/>
+      <c r="AGP3" s="6"/>
+      <c r="AGQ3" s="6"/>
+      <c r="AGR3" s="6"/>
+      <c r="AGS3" s="6"/>
+      <c r="AGT3" s="6"/>
+      <c r="AGU3" s="6"/>
+      <c r="AGV3" s="6"/>
+      <c r="AGW3" s="6"/>
+      <c r="AGX3" s="6"/>
+      <c r="AGY3" s="6"/>
+      <c r="AGZ3" s="6"/>
+      <c r="AHA3" s="6"/>
+      <c r="AHB3" s="6"/>
+      <c r="AHC3" s="6"/>
+      <c r="AHD3" s="6"/>
+      <c r="AHE3" s="6"/>
+      <c r="AHF3" s="6"/>
+      <c r="AHG3" s="6"/>
+      <c r="AHH3" s="6"/>
+      <c r="AHI3" s="6"/>
+      <c r="AHJ3" s="6"/>
+      <c r="AHK3" s="6"/>
+      <c r="AHL3" s="6"/>
+      <c r="AHM3" s="6"/>
+      <c r="AHN3" s="6"/>
+      <c r="AHO3" s="6"/>
+      <c r="AHP3" s="6"/>
+      <c r="AHQ3" s="6"/>
+      <c r="AHR3" s="6"/>
+      <c r="AHS3" s="6"/>
+      <c r="AHT3" s="6"/>
+      <c r="AHU3" s="6"/>
+      <c r="AHV3" s="6"/>
+      <c r="AHW3" s="6"/>
+      <c r="AHX3" s="6"/>
+      <c r="AHY3" s="6"/>
+      <c r="AHZ3" s="6"/>
+      <c r="AIA3" s="6"/>
+      <c r="AIB3" s="6"/>
+      <c r="AIC3" s="6"/>
+      <c r="AID3" s="6"/>
+      <c r="AIE3" s="6"/>
+      <c r="AIF3" s="6"/>
+      <c r="AIG3" s="6"/>
+      <c r="AIH3" s="6"/>
+      <c r="AII3" s="6"/>
+      <c r="AIJ3" s="6"/>
+      <c r="AIK3" s="6"/>
+      <c r="AIL3" s="6"/>
+      <c r="AIM3" s="6"/>
+      <c r="AIN3" s="6"/>
+      <c r="AIO3" s="6"/>
+      <c r="AIP3" s="6"/>
+      <c r="AIQ3" s="6"/>
+      <c r="AIR3" s="6"/>
+      <c r="AIS3" s="6"/>
+      <c r="AIT3" s="6"/>
+      <c r="AIU3" s="6"/>
+      <c r="AIV3" s="6"/>
+      <c r="AIW3" s="6"/>
+      <c r="AIX3" s="6"/>
+      <c r="AIY3" s="6"/>
+      <c r="AIZ3" s="6"/>
+      <c r="AJA3" s="6"/>
+      <c r="AJB3" s="6"/>
+      <c r="AJC3" s="6"/>
+      <c r="AJD3" s="6"/>
+      <c r="AJE3" s="6"/>
+      <c r="AJF3" s="6"/>
+      <c r="AJG3" s="6"/>
+      <c r="AJH3" s="6"/>
+      <c r="AJI3" s="6"/>
+      <c r="AJJ3" s="6"/>
+      <c r="AJK3" s="6"/>
+      <c r="AJL3" s="6"/>
+      <c r="AJM3" s="6"/>
+      <c r="AJN3" s="6"/>
+      <c r="AJO3" s="6"/>
+      <c r="AJP3" s="6"/>
+      <c r="AJQ3" s="6"/>
+      <c r="AJR3" s="6"/>
+      <c r="AJS3" s="6"/>
+      <c r="AJT3" s="6"/>
+      <c r="AJU3" s="6"/>
+      <c r="AJV3" s="6"/>
+      <c r="AJW3" s="6"/>
+      <c r="AJX3" s="6"/>
+      <c r="AJY3" s="6"/>
+      <c r="AJZ3" s="6"/>
+      <c r="AKA3" s="6"/>
+      <c r="AKB3" s="6"/>
+      <c r="AKC3" s="6"/>
+      <c r="AKD3" s="6"/>
+      <c r="AKE3" s="6"/>
+      <c r="AKF3" s="6"/>
+      <c r="AKG3" s="6"/>
+      <c r="AKH3" s="6"/>
+      <c r="AKI3" s="6"/>
+      <c r="AKJ3" s="6"/>
+      <c r="AKK3" s="6"/>
+      <c r="AKL3" s="6"/>
+      <c r="AKM3" s="6"/>
+      <c r="AKN3" s="6"/>
+      <c r="AKO3" s="6"/>
+      <c r="AKP3" s="6"/>
+      <c r="AKQ3" s="6"/>
+      <c r="AKR3" s="6"/>
+      <c r="AKS3" s="6"/>
+      <c r="AKT3" s="6"/>
+      <c r="AKU3" s="6"/>
+      <c r="AKV3" s="6"/>
+      <c r="AKW3" s="6"/>
+      <c r="AKX3" s="6"/>
+      <c r="AKY3" s="6"/>
+      <c r="AKZ3" s="6"/>
+      <c r="ALA3" s="6"/>
+      <c r="ALB3" s="6"/>
+      <c r="ALC3" s="6"/>
+      <c r="ALD3" s="6"/>
+      <c r="ALE3" s="6"/>
+      <c r="ALF3" s="6"/>
+      <c r="ALG3" s="6"/>
+      <c r="ALH3" s="6"/>
+      <c r="ALI3" s="6"/>
+      <c r="ALJ3" s="6"/>
+      <c r="ALK3" s="6"/>
+      <c r="ALL3" s="6"/>
+      <c r="ALM3" s="6"/>
+      <c r="ALN3" s="6"/>
+      <c r="ALO3" s="6"/>
+      <c r="ALP3" s="6"/>
+      <c r="ALQ3" s="6"/>
+      <c r="ALR3" s="6"/>
+      <c r="ALS3" s="6"/>
+      <c r="ALT3" s="6"/>
+      <c r="ALU3" s="6"/>
+      <c r="ALV3" s="6"/>
+      <c r="ALW3" s="6"/>
+      <c r="ALX3" s="6"/>
+      <c r="ALY3" s="6"/>
+      <c r="ALZ3" s="6"/>
+      <c r="AMA3" s="6"/>
+      <c r="AMB3" s="6"/>
+      <c r="AMC3" s="6"/>
+      <c r="AMD3" s="6"/>
+      <c r="AME3" s="6"/>
+      <c r="AMF3" s="6"/>
+      <c r="AMG3" s="6"/>
+      <c r="AMH3" s="6"/>
+      <c r="AMI3" s="6"/>
+      <c r="AMJ3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
@@ -6532,14 +6573,14 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
@@ -6558,18 +6599,18 @@
         <v>162</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
@@ -6587,19 +6628,19 @@
       <c r="E6" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
@@ -6617,19 +6658,19 @@
       <c r="E7" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
@@ -6647,19 +6688,19 @@
       <c r="E8" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
@@ -6678,18 +6719,18 @@
         <v>172</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
@@ -6705,19 +6746,19 @@
       <c r="E10" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44" t="s">
@@ -6734,18 +6775,18 @@
         <v>176</v>
       </c>
       <c r="F11" s="43"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
@@ -6764,18 +6805,18 @@
         <v>180</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
@@ -6790,22 +6831,22 @@
       <c r="D13" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44" t="s">
@@ -6817,23 +6858,23 @@
       <c r="C14" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44" t="s">
@@ -6848,22 +6889,22 @@
       <c r="D15" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
@@ -6881,19 +6922,19 @@
       <c r="E16" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44" t="s">
@@ -6908,22 +6949,22 @@
       <c r="D17" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44" t="s">
@@ -6935,23 +6976,23 @@
       <c r="C18" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53" t="s">
+      <c r="D18" s="52"/>
+      <c r="E18" s="52" t="s">
         <v>198</v>
       </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="44" t="s">
@@ -6963,23 +7004,23 @@
       <c r="C19" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44" t="s">
@@ -6997,19 +7038,19 @@
       <c r="E20" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="32" t="s">
@@ -7018,7 +7059,7 @@
       <c r="B21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="53" t="s">
         <v>207</v>
       </c>
       <c r="E21" s="33" t="s">
@@ -7049,16 +7090,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="143.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="143.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="512.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>210</v>
       </c>
     </row>
